--- a/features/backlog/android/rate_us.xlsx
+++ b/features/backlog/android/rate_us.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9812D7B5-25D1-48CC-B9A7-B0786AE59186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006645FB-38E1-4D45-9B96-A11B5F4F9A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t xml:space="preserve">Jira Task No: 1419 </t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Open the Rate Us module and ensure all UI elements (stars, feedback box, submit button) are present.</t>
-  </si>
-  <si>
-    <t>Verify that users can select different star ratings.</t>
   </si>
   <si>
     <t>Confirm that users can enter feedback in the text box.</t>
@@ -225,12 +222,134 @@
     <t>1. User Needs to Authenticated
 2. User Needs to logout</t>
   </si>
+  <si>
+    <t>system should run smoothly while having more than 1000 feed giving at a time</t>
+  </si>
+  <si>
+    <t>all text or imoji related thing needs to be store correctly</t>
+  </si>
+  <si>
+    <t>should show the proper text with all relative language.</t>
+  </si>
+  <si>
+    <t>layout and design shouldn't be broken</t>
+  </si>
+  <si>
+    <t>should be same design in the various devices</t>
+  </si>
+  <si>
+    <t>should open the feedback page.</t>
+  </si>
+  <si>
+    <t>while having trouble  with netwrok should recover in the submission</t>
+  </si>
+  <si>
+    <t>should show the network error message</t>
+  </si>
+  <si>
+    <t>should have an option to skip the feedback form</t>
+  </si>
+  <si>
+    <t>should all the message in the screen are properly visible</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4. fill up the necessary data field and submit</t>
+  </si>
+  <si>
+    <t>should show the success message for 3s in duration</t>
+  </si>
+  <si>
+    <t>should show the success message</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4. fill up the necessary data field and submit with bad review</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4. fill up the necessary data field and submit with good review</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4. fill up the necessary data field
+5. edit any data
+6. submit the form</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4.fill up the necessary data field and submit with max(500) character in the text field</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4.fill up the necessary data field and submit with min(3) character in the text field</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4.fill up the necessary data field and submit with 0 character in the text field</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4.fill up the necessary data field and submit with 0 emoji in the emoji field</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4. try to type the text in the text field</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4. try to select different emoji</t>
+  </si>
+  <si>
+    <t>Verify that users can select different emoji.</t>
+  </si>
+  <si>
+    <t>1. Open the app
+2. login to the app
+3. logout from the app
+4. observe the whole screen</t>
+  </si>
+  <si>
+    <t>should show the all necessary element</t>
+  </si>
+  <si>
+    <t>user should select the all type of emoji</t>
+  </si>
+  <si>
+    <t>should be allowed to type in the text box fields.</t>
+  </si>
+  <si>
+    <t>should show the front end validation message</t>
+  </si>
+  <si>
+    <t>user should change the value before submit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -263,8 +382,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +406,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -355,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -395,15 +532,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,8 +1449,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1312,15 +1467,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1342,13 +1497,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1411,21 +1566,21 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>65</v>
+      <c r="D4" s="21" t="s">
+        <v>89</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
+      <c r="E4" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
@@ -1453,21 +1608,21 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
+      <c r="C5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1491,21 +1646,21 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>65</v>
+      <c r="D6" s="21" t="s">
+        <v>86</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
+      <c r="E6" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1529,21 +1684,21 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>65</v>
+      <c r="D7" s="21" t="s">
+        <v>85</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
+      <c r="E7" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1567,21 +1722,21 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>65</v>
+      <c r="D8" s="21" t="s">
+        <v>84</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
+      <c r="E8" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1605,21 +1760,21 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>65</v>
+      <c r="D9" s="21" t="s">
+        <v>83</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
+      <c r="E9" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1643,21 +1798,21 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>65</v>
+      <c r="D10" s="21" t="s">
+        <v>82</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
+      <c r="E10" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1681,21 +1836,21 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>65</v>
+      <c r="D11" s="21" t="s">
+        <v>81</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
+      <c r="E11" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1720,19 +1875,19 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>46</v>
+      <c r="A12" s="19" t="s">
+        <v>45</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="10"/>
@@ -1757,21 +1912,21 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>65</v>
+      <c r="D13" s="21" t="s">
+        <v>80</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
+      <c r="E13" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1795,21 +1950,21 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>65</v>
+      <c r="D14" s="21" t="s">
+        <v>79</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
+      <c r="E14" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1835,19 +1990,19 @@
     </row>
     <row r="15" spans="1:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>23</v>
+      <c r="C15" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>8</v>
+      <c r="E15" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1871,21 +2026,21 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>65</v>
+      <c r="D16" s="21" t="s">
+        <v>76</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>8</v>
+      <c r="E16" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1910,19 +2065,19 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>51</v>
+      <c r="A17" s="19" t="s">
+        <v>50</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="10"/>
@@ -1949,19 +2104,19 @@
     </row>
     <row r="18" spans="1:26" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>8</v>
+      <c r="E18" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1987,19 +2142,19 @@
     </row>
     <row r="19" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>8</v>
+      <c r="E19" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -2024,19 +2179,19 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>54</v>
+      <c r="A20" s="19" t="s">
+        <v>53</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="10"/>
@@ -2062,19 +2217,19 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>55</v>
+      <c r="A21" s="19" t="s">
+        <v>54</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="10"/>
@@ -2099,21 +2254,21 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>8</v>
+      <c r="E22" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -2139,19 +2294,19 @@
     </row>
     <row r="23" spans="1:26" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>8</v>
+      <c r="E23" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -2176,19 +2331,19 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>58</v>
+      <c r="A24" s="19" t="s">
+        <v>57</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="12"/>
@@ -2215,19 +2370,19 @@
     </row>
     <row r="25" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="14"/>
@@ -2253,19 +2408,19 @@
     </row>
     <row r="26" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="14"/>
@@ -2291,19 +2446,19 @@
     </row>
     <row r="27" spans="1:26" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="14"/>
@@ -2329,19 +2484,19 @@
     </row>
     <row r="28" spans="1:26" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="14"/>
@@ -2367,19 +2522,19 @@
     </row>
     <row r="29" spans="1:26" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="14"/>
@@ -2405,19 +2560,19 @@
     </row>
     <row r="30" spans="1:26" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="14"/>
@@ -2442,13 +2597,13 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2470,13 +2625,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="17"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2498,13 +2653,13 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2526,13 +2681,13 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="17"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2554,13 +2709,13 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="17"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
